--- a/experiments/experiments_featureselection/bikes_regr_results.xlsx
+++ b/experiments/experiments_featureselection/bikes_regr_results.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bikes" sheetId="1" r:id="rId1"/>
     <sheet name="diabetes" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="abalone regr" sheetId="3" r:id="rId3"/>
+    <sheet name="house_16h" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -52,10 +53,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -72,10 +75,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -86,10 +91,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -100,10 +107,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -114,10 +123,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -128,10 +139,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -142,10 +155,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -156,10 +171,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -170,10 +187,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -184,10 +203,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -201,10 +222,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -215,10 +238,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -229,10 +254,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -243,10 +270,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -257,10 +286,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -271,10 +302,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -292,10 +325,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -306,10 +341,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -320,10 +357,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -334,10 +373,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -351,10 +392,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -365,10 +408,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -379,10 +424,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -393,10 +440,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -407,10 +456,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -421,10 +472,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -435,10 +488,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -449,10 +504,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -466,10 +523,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -480,10 +539,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -494,10 +555,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -508,10 +571,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -522,10 +587,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -536,10 +603,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -550,10 +619,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -567,10 +638,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -581,10 +654,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -601,10 +676,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -615,10 +692,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -629,10 +708,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -646,10 +727,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -660,10 +743,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -674,10 +759,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -688,10 +775,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -702,10 +791,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -716,10 +807,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -730,10 +823,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -744,10 +839,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -758,10 +855,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -776,10 +875,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>104.794</t>
     </r>
@@ -793,10 +894,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -807,10 +910,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -824,10 +929,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -841,10 +948,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -855,10 +964,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -872,10 +983,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -886,10 +999,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -900,10 +1015,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -914,10 +1031,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -928,10 +1047,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -942,10 +1063,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -956,10 +1079,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -970,10 +1095,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -987,10 +1114,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1004,10 +1133,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1018,10 +1149,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1032,10 +1165,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1046,10 +1181,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1060,10 +1197,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1074,10 +1213,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1088,10 +1229,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1102,10 +1245,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1116,10 +1261,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1130,10 +1277,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1144,10 +1293,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1158,10 +1309,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1172,10 +1325,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1186,10 +1341,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1200,10 +1357,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1214,10 +1373,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1228,10 +1389,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1242,10 +1405,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1256,10 +1421,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1270,10 +1437,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1284,10 +1453,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1298,10 +1469,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1312,10 +1485,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1329,10 +1504,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1343,10 +1520,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1360,10 +1539,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1377,10 +1558,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1394,10 +1577,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1408,10 +1593,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1422,10 +1609,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1433,6 +1622,688 @@
   <si>
     <r>
       <t>57.805</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>69.33</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13.431</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48.598</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>42.469</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>45.221</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>43.687</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>47.941</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>42.693</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>43.518</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>47.178</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>68.967</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18.55</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>51.971</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>41.135</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>49.357</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>43.11</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>51.274</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>42.135</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>49.445</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>43.291</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>66.666</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19.331</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>36.78</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>54.471</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>35.258</t>
+  </si>
+  <si>
+    <r>
+      <t>56.721</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>35.524</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>56.465</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>34.942</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>56.813</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30.919</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>58.101</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>39.602</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t>50.079</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>36.883</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>52.363</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>38.819</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50.962</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>36.623</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>52.142</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>29.353</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>56.918</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>38.979</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>49.079</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40.285</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50.708</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>39.224</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50.734</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>39.111</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <vertAlign val="baseline"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>51.03</t>
     </r>
     <r>
       <rPr>
@@ -1449,7 +2320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,6 +2353,11 @@
       <color rgb="FF000000"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1835,7 +2711,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:O1"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2128,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" activeCellId="0" sqref="C2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2418,10 +3294,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="23.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" ht="23.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" ht="23.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experiments/experiments_featureselection/bikes_regr_results.xlsx
+++ b/experiments/experiments_featureselection/bikes_regr_results.xlsx
@@ -1641,10 +1641,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1655,10 +1657,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1669,10 +1673,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1683,10 +1689,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1697,10 +1705,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1711,10 +1721,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1725,10 +1737,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1739,10 +1753,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1757,10 +1773,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t>47.178</t>
     </r>
@@ -1771,10 +1789,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1785,10 +1805,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1799,10 +1821,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1813,10 +1837,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1827,10 +1853,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1841,10 +1869,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1855,10 +1885,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1869,10 +1901,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1883,10 +1917,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1897,10 +1933,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1911,10 +1949,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1925,10 +1965,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1939,10 +1981,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1953,10 +1997,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1970,10 +2016,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1984,10 +2032,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1998,10 +2048,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2012,10 +2064,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2026,10 +2080,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2040,10 +2096,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2054,10 +2112,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2068,10 +2128,12 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2083,17 +2145,289 @@
     </r>
     <r>
       <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>50.079</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>36.883</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>52.363</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>38.819</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50.962</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>36.623</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>52.142</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>29.353</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>56.918</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>38.979</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>49.079</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40.285</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50.708</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>39.224</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50.734</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>39.111</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>51.03</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>56.183</t>
+    </r>
+    <r>
+      <rPr>
         <rFont val="Segoe UI"/>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <vertAlign val="baseline"/>
       </rPr>
-      <t>50.079</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>36.883</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>34.581</t>
     </r>
     <r>
       <rPr>
@@ -2107,7 +2441,7 @@
   </si>
   <si>
     <r>
-      <t>52.363</t>
+      <t>39.311</t>
     </r>
     <r>
       <rPr>
@@ -2121,7 +2455,7 @@
   </si>
   <si>
     <r>
-      <t>38.819</t>
+      <t>50.184</t>
     </r>
     <r>
       <rPr>
@@ -2135,7 +2469,7 @@
   </si>
   <si>
     <r>
-      <t>50.962</t>
+      <t>38.577</t>
     </r>
     <r>
       <rPr>
@@ -2149,7 +2483,7 @@
   </si>
   <si>
     <r>
-      <t>36.623</t>
+      <t>50.929</t>
     </r>
     <r>
       <rPr>
@@ -2163,7 +2497,7 @@
   </si>
   <si>
     <r>
-      <t>52.142</t>
+      <t>39.588</t>
     </r>
     <r>
       <rPr>
@@ -2177,7 +2511,7 @@
   </si>
   <si>
     <r>
-      <t>29.353</t>
+      <t>50.723</t>
     </r>
     <r>
       <rPr>
@@ -2190,8 +2524,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>56.918</t>
+    <t>38.22</t>
+  </si>
+  <si>
+    <r>
+      <t>51.413</t>
     </r>
     <r>
       <rPr>
@@ -2204,123 +2541,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>38.979</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>49.079</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40.285</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>50.708</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>39.224</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>50.734</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>39.111</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>51.03</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Segoe UI"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <vertAlign val="baseline"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>52.183</t>
+  </si>
+  <si>
+    <t>49.918</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2353,6 +2584,11 @@
       <color rgb="FF000000"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3348,7 +3584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3563,8 +3799,8 @@
       <c r="F6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>166</v>
+      <c r="G6" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>173</v>
@@ -3580,6 +3816,49 @@
       </c>
       <c r="O6" s="3" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" ht="23.25">
+      <c r="K8" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
